--- a/data/Subset1_WithDialogActs/Video Mosaic Grade 6 1 variable 6.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/Video Mosaic Grade 6 1 variable 6.xlsx_with_dialog_acts.xlsx
@@ -687,12 +687,12 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -723,12 +723,12 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -975,12 +975,12 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1083,12 +1083,12 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1155,12 +1155,12 @@
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1191,12 +1191,12 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1267,12 +1267,12 @@
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1375,12 +1375,12 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2099,12 +2099,12 @@
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2495,12 +2495,12 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2787,12 +2787,12 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2823,12 +2823,12 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3039,12 +3039,12 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3111,12 +3111,12 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3255,12 +3255,12 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3795,12 +3795,12 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4919,12 +4919,12 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4955,12 +4955,12 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5027,12 +5027,12 @@
       <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5279,12 +5279,12 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -5603,12 +5603,12 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6863,12 +6863,12 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7547,12 +7547,12 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -7835,12 +7835,12 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -7907,12 +7907,12 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8051,12 +8051,12 @@
       <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
